--- a/team_data.xlsx
+++ b/team_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shira\Documents\march_sadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B20E5-D236-4335-AF12-ABBD66536DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B2FBA-31B5-439C-8E69-C87E65C57A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="13800" xr2:uid="{15AD92E0-66BA-4025-803D-92F1230BF2AB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{15AD92E0-66BA-4025-803D-92F1230BF2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908311B2-25E6-4317-A3AE-28B549BEF67F}">
   <dimension ref="A1:U364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
